--- a/Assets/StreamingAssets/7_Quan_Chen.xlsx
+++ b/Assets/StreamingAssets/7_Quan_Chen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E4048-7044-C844-8C10-A447A2617483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224F833B-40C7-6D47-BFAB-14EE7204B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mister Di, I’ll leave it to you to find the culprit.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Very well. To uncover the truth, I need to ask you a few questions.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,22 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When was the last time you saw the master of the manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sometime after the Shen hour (around 3–5 PM). I was walking down the corridor and happened to see the master coming out of the main hall.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I greeted him, then headed to the training ground to practice martial arts.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He often guided me in martial arts before…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I never imagined that would be the last time I saw him.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,26 +184,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Housekeeper He and Ling both mentioned this in their statements.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>After cooking, I had just stepped out of the kitchen when I ran into Quan. We headed to the banquet hall together.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I recall they did indeed arrive at the banquet hall at the same time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Did you leave the banquet at any point?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Does going to the restroom in the banquet hall count? I was gone for about half a quarter-hour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Aside from that, I didn’t leave at all.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +205,34 @@
   </si>
   <si>
     <t>StoryScript8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I recall they did indeed arrive at the banquet hall at the same time.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, I’ll leave it to you to find the culprit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sometime after 5 PM. I was walking down the corridor and happened to see the master coming out of the main hall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When was the last time you saw the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He often guided me in martial arts before.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler He and Ling both mentioned this in their statements.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does going to the restroom in the banquet hall count? I was gone for about 15 min.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -751,7 +751,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -766,12 +766,12 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="34">
+    <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -811,7 +811,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -829,7 +829,7 @@
         <v>500</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
@@ -837,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -857,7 +857,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -897,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -937,7 +937,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -993,7 +993,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1010,7 +1010,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="18" spans="1:5" ht="17">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/7_Quan_Chen.xlsx
+++ b/Assets/StreamingAssets/7_Quan_Chen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224F833B-40C7-6D47-BFAB-14EE7204B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B1166-A64C-0445-9CA9-A8FCF22CA9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sometime after 5 PM. I was walking down the corridor and happened to see the master coming out of the main hall.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When was the last time you saw the Lord?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,9 @@
   <si>
     <t>Does going to the restroom in the banquet hall count? I was gone for about 15 min.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sometime after 5 PM. I was walking down the corridor and happened to see the Lord coming out of the main hall.</t>
   </si>
 </sst>
 </file>
@@ -771,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -791,7 +790,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -837,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -914,7 +913,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -993,7 +992,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
